--- a/results/I3_N5_M3_T15_C150_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.3878541869114</v>
+        <v>169.7290434521012</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05500006675720215</v>
+        <v>0.04000020027160645</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.10785418691139</v>
+        <v>29.7290434521012</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.28</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.134510687494963</v>
+        <v>9.543468035160071</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>10.20829884070386</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34700000000485</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2720000000245</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38.14099999999875</v>
+        <v>128.8</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>145.9319999999985</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.88600000001112</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>115.2720000000609</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>84.88600000002226</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>145.9319999999979</v>
+        <v>128.8</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.601999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
